--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-783851.4608734094</v>
+        <v>-786521.4564283709</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9823063.766377142</v>
+        <v>9823063.766377153</v>
       </c>
     </row>
     <row r="8">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>369.0685238739795</v>
+        <v>369.068523873979</v>
       </c>
       <c r="C11" t="n">
-        <v>351.6075739815064</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.6776651229567</v>
+        <v>103.8627238863112</v>
       </c>
       <c r="E11" t="n">
-        <v>368.2650522827607</v>
+        <v>368.2650522827602</v>
       </c>
       <c r="F11" t="n">
-        <v>393.2107279522104</v>
+        <v>393.2107279522098</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>280.9424465978194</v>
+        <v>280.9424465978188</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>95.52244399867423</v>
       </c>
       <c r="T11" t="n">
-        <v>190.2526523501191</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>237.3298541694009</v>
+        <v>237.3298541694004</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>314.0869406806333</v>
       </c>
       <c r="W11" t="n">
-        <v>335.575650927912</v>
+        <v>335.5756509279114</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>356.0657828889674</v>
       </c>
       <c r="Y11" t="n">
-        <v>372.5726208665525</v>
+        <v>372.572620866552</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.1666623924362</v>
+        <v>134.5803062575795</v>
       </c>
       <c r="C13" t="n">
-        <v>153.5815033091268</v>
+        <v>153.5815033091262</v>
       </c>
       <c r="D13" t="n">
-        <v>94.67562065961974</v>
+        <v>134.9501552287107</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>132.7686448570676</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0896971248192</v>
       </c>
       <c r="I13" t="n">
-        <v>82.68710262033704</v>
+        <v>82.6871026203365</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>75.26683488054627</v>
+        <v>75.26683488054573</v>
       </c>
       <c r="S13" t="n">
-        <v>176.1037075419408</v>
+        <v>176.1037075419403</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>272.5465204161118</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>238.4723255343269</v>
+        <v>238.4723255343264</v>
       </c>
       <c r="W13" t="n">
-        <v>272.8576805470899</v>
+        <v>272.8576805470894</v>
       </c>
       <c r="X13" t="n">
-        <v>212.0443375995361</v>
+        <v>212.0443375995355</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.9193355625937</v>
+        <v>204.9193355625932</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>369.068523873979</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>341.0177238311819</v>
+        <v>341.0177238311813</v>
       </c>
       <c r="E14" t="n">
-        <v>368.2650522827607</v>
+        <v>368.2650522827602</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>393.2107279522098</v>
       </c>
       <c r="G14" t="n">
-        <v>397.2564078639524</v>
+        <v>397.2564078639518</v>
       </c>
       <c r="H14" t="n">
-        <v>280.9424465978194</v>
+        <v>280.9424465978188</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>27.91161198342433</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>33.13763566591539</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>190.2526523501191</v>
+        <v>190.2526523501185</v>
       </c>
       <c r="U14" t="n">
-        <v>237.329854169401</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>314.0869406806339</v>
+        <v>314.0869406806333</v>
       </c>
       <c r="W14" t="n">
-        <v>335.575650927912</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>356.065782888968</v>
+        <v>171.9180598425887</v>
       </c>
       <c r="Y14" t="n">
-        <v>372.5726208665525</v>
+        <v>372.572620866552</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>166.1666623924363</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>153.5815033091268</v>
+        <v>153.5815033091262</v>
       </c>
       <c r="D16" t="n">
-        <v>134.9501552287113</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>132.7686448570682</v>
+        <v>132.7686448570676</v>
       </c>
       <c r="F16" t="n">
-        <v>131.7557302334302</v>
+        <v>131.7557302334296</v>
       </c>
       <c r="G16" t="n">
-        <v>152.3604904695272</v>
+        <v>137.1215954597644</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0896971248192</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>82.68710262033647</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>75.26683488054572</v>
       </c>
       <c r="S16" t="n">
-        <v>88.94258251324287</v>
+        <v>176.1037075419403</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>205.8836314866676</v>
       </c>
       <c r="U16" t="n">
-        <v>272.5465204161118</v>
+        <v>272.5465204161113</v>
       </c>
       <c r="V16" t="n">
-        <v>238.472325534327</v>
+        <v>238.4723255343264</v>
       </c>
       <c r="W16" t="n">
-        <v>272.85768054709</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>212.0443375995355</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.9193355625938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.0933872553869</v>
+        <v>322.0933872553864</v>
       </c>
       <c r="C17" t="n">
-        <v>304.6324373629139</v>
+        <v>304.6324373629134</v>
       </c>
       <c r="D17" t="n">
-        <v>294.0425872125893</v>
+        <v>294.0425872125888</v>
       </c>
       <c r="E17" t="n">
-        <v>321.2899156641681</v>
+        <v>321.2899156641676</v>
       </c>
       <c r="F17" t="n">
-        <v>346.2355913336178</v>
+        <v>346.2355913336173</v>
       </c>
       <c r="G17" t="n">
-        <v>350.2812712453598</v>
+        <v>350.2812712453593</v>
       </c>
       <c r="H17" t="n">
-        <v>233.9673099792268</v>
+        <v>233.9673099792263</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>48.54730738008222</v>
+        <v>9.735998945824512</v>
       </c>
       <c r="T17" t="n">
-        <v>143.2775157315265</v>
+        <v>143.277515731526</v>
       </c>
       <c r="U17" t="n">
-        <v>151.5434091165646</v>
+        <v>190.3547175508078</v>
       </c>
       <c r="V17" t="n">
-        <v>267.1118040620412</v>
+        <v>267.1118040620407</v>
       </c>
       <c r="W17" t="n">
-        <v>288.6005143093194</v>
+        <v>288.6005143093188</v>
       </c>
       <c r="X17" t="n">
-        <v>309.0906462703754</v>
+        <v>309.0906462703749</v>
       </c>
       <c r="Y17" t="n">
-        <v>325.5974842479599</v>
+        <v>325.5974842479594</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.1915257738437</v>
+        <v>119.1915257738431</v>
       </c>
       <c r="C19" t="n">
-        <v>106.6063666905342</v>
+        <v>106.6063666905337</v>
       </c>
       <c r="D19" t="n">
-        <v>87.97501861011871</v>
+        <v>87.97501861011818</v>
       </c>
       <c r="E19" t="n">
-        <v>85.79350823847552</v>
+        <v>85.793508238475</v>
       </c>
       <c r="F19" t="n">
-        <v>84.7805936148376</v>
+        <v>84.78059361483707</v>
       </c>
       <c r="G19" t="n">
-        <v>105.3853538509346</v>
+        <v>105.3853538509341</v>
       </c>
       <c r="H19" t="n">
-        <v>84.11456050622714</v>
+        <v>84.11456050622661</v>
       </c>
       <c r="I19" t="n">
-        <v>35.71196600174446</v>
+        <v>35.71196600174392</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>28.2916982619537</v>
+        <v>28.29169826195316</v>
       </c>
       <c r="S19" t="n">
-        <v>129.1285709233482</v>
+        <v>129.1285709233477</v>
       </c>
       <c r="T19" t="n">
-        <v>158.9084948680755</v>
+        <v>158.908494868075</v>
       </c>
       <c r="U19" t="n">
-        <v>225.5713837975192</v>
+        <v>225.5713837975187</v>
       </c>
       <c r="V19" t="n">
-        <v>191.4971889157343</v>
+        <v>191.4971889157338</v>
       </c>
       <c r="W19" t="n">
-        <v>225.8825439284973</v>
+        <v>225.8825439284968</v>
       </c>
       <c r="X19" t="n">
-        <v>165.0692009809435</v>
+        <v>165.069200980943</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.9441989440011</v>
+        <v>157.9441989440006</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>322.0933872553869</v>
+        <v>283.2820788211298</v>
       </c>
       <c r="C20" t="n">
-        <v>304.6324373629139</v>
+        <v>304.6324373629134</v>
       </c>
       <c r="D20" t="n">
-        <v>294.0425872125893</v>
+        <v>294.0425872125888</v>
       </c>
       <c r="E20" t="n">
-        <v>321.2899156641681</v>
+        <v>321.2899156641676</v>
       </c>
       <c r="F20" t="n">
-        <v>346.2355913336178</v>
+        <v>346.2355913336173</v>
       </c>
       <c r="G20" t="n">
-        <v>350.2812712453598</v>
+        <v>350.2812712453593</v>
       </c>
       <c r="H20" t="n">
-        <v>233.9673099792268</v>
+        <v>233.9673099792263</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>48.54730738008222</v>
+        <v>48.54730738008166</v>
       </c>
       <c r="T20" t="n">
-        <v>143.2775157315265</v>
+        <v>143.277515731526</v>
       </c>
       <c r="U20" t="n">
-        <v>190.3547175508083</v>
+        <v>190.3547175508078</v>
       </c>
       <c r="V20" t="n">
-        <v>267.1118040620412</v>
+        <v>267.1118040620407</v>
       </c>
       <c r="W20" t="n">
-        <v>288.6005143093194</v>
+        <v>288.6005143093188</v>
       </c>
       <c r="X20" t="n">
-        <v>270.2793378361315</v>
+        <v>309.0906462703749</v>
       </c>
       <c r="Y20" t="n">
-        <v>325.5974842479599</v>
+        <v>325.5974842479594</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.1915257738437</v>
+        <v>119.1915257738431</v>
       </c>
       <c r="C22" t="n">
-        <v>106.6063666905342</v>
+        <v>106.6063666905337</v>
       </c>
       <c r="D22" t="n">
-        <v>87.97501861011871</v>
+        <v>87.97501861011818</v>
       </c>
       <c r="E22" t="n">
-        <v>85.79350823847552</v>
+        <v>85.793508238475</v>
       </c>
       <c r="F22" t="n">
-        <v>84.7805936148376</v>
+        <v>84.78059361483707</v>
       </c>
       <c r="G22" t="n">
-        <v>105.3853538509346</v>
+        <v>105.3853538509341</v>
       </c>
       <c r="H22" t="n">
-        <v>84.11456050622714</v>
+        <v>84.11456050622661</v>
       </c>
       <c r="I22" t="n">
-        <v>35.71196600174446</v>
+        <v>35.71196600174392</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.2916982619537</v>
+        <v>28.29169826195316</v>
       </c>
       <c r="S22" t="n">
-        <v>129.1285709233482</v>
+        <v>129.1285709233477</v>
       </c>
       <c r="T22" t="n">
-        <v>158.9084948680755</v>
+        <v>158.908494868075</v>
       </c>
       <c r="U22" t="n">
-        <v>225.5713837975192</v>
+        <v>225.5713837975187</v>
       </c>
       <c r="V22" t="n">
-        <v>191.4971889157343</v>
+        <v>191.4971889157338</v>
       </c>
       <c r="W22" t="n">
-        <v>225.8825439284973</v>
+        <v>225.8825439284968</v>
       </c>
       <c r="X22" t="n">
-        <v>165.0692009809435</v>
+        <v>165.069200980943</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.9441989440011</v>
+        <v>157.9441989440006</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.0933872553869</v>
+        <v>322.0933872553864</v>
       </c>
       <c r="C23" t="n">
-        <v>304.6324373629139</v>
+        <v>304.6324373629134</v>
       </c>
       <c r="D23" t="n">
-        <v>294.0425872125893</v>
+        <v>294.0425872125888</v>
       </c>
       <c r="E23" t="n">
-        <v>321.2899156641681</v>
+        <v>321.2899156641676</v>
       </c>
       <c r="F23" t="n">
-        <v>346.2355913336178</v>
+        <v>346.2355913336173</v>
       </c>
       <c r="G23" t="n">
-        <v>350.2812712453598</v>
+        <v>350.2812712453593</v>
       </c>
       <c r="H23" t="n">
-        <v>233.9673099792268</v>
+        <v>233.9673099792263</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>48.54730738008222</v>
+        <v>48.54730738008166</v>
       </c>
       <c r="T23" t="n">
-        <v>143.2775157315265</v>
+        <v>143.277515731526</v>
       </c>
       <c r="U23" t="n">
-        <v>190.3547175508083</v>
+        <v>190.3547175508078</v>
       </c>
       <c r="V23" t="n">
-        <v>267.1118040620412</v>
+        <v>267.1118040620407</v>
       </c>
       <c r="W23" t="n">
-        <v>288.6005143093194</v>
+        <v>288.6005143093188</v>
       </c>
       <c r="X23" t="n">
-        <v>309.0906462703754</v>
+        <v>309.0906462703749</v>
       </c>
       <c r="Y23" t="n">
-        <v>325.5974842479599</v>
+        <v>325.5974842479594</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.1915257738437</v>
+        <v>119.1915257738431</v>
       </c>
       <c r="C25" t="n">
-        <v>106.6063666905342</v>
+        <v>106.6063666905337</v>
       </c>
       <c r="D25" t="n">
-        <v>87.97501861011871</v>
+        <v>87.97501861011818</v>
       </c>
       <c r="E25" t="n">
-        <v>85.79350823847552</v>
+        <v>85.793508238475</v>
       </c>
       <c r="F25" t="n">
-        <v>84.7805936148376</v>
+        <v>84.78059361483707</v>
       </c>
       <c r="G25" t="n">
-        <v>105.3853538509346</v>
+        <v>105.3853538509341</v>
       </c>
       <c r="H25" t="n">
-        <v>84.11456050622714</v>
+        <v>84.11456050622661</v>
       </c>
       <c r="I25" t="n">
-        <v>35.71196600174446</v>
+        <v>35.71196600174392</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.2916982619537</v>
+        <v>28.29169826195316</v>
       </c>
       <c r="S25" t="n">
-        <v>129.1285709233482</v>
+        <v>129.1285709233477</v>
       </c>
       <c r="T25" t="n">
-        <v>158.9084948680755</v>
+        <v>158.908494868075</v>
       </c>
       <c r="U25" t="n">
-        <v>225.5713837975192</v>
+        <v>225.5713837975187</v>
       </c>
       <c r="V25" t="n">
-        <v>191.4971889157343</v>
+        <v>191.4971889157338</v>
       </c>
       <c r="W25" t="n">
-        <v>225.8825439284973</v>
+        <v>225.8825439284968</v>
       </c>
       <c r="X25" t="n">
-        <v>165.0692009809435</v>
+        <v>165.069200980943</v>
       </c>
       <c r="Y25" t="n">
-        <v>157.9441989440011</v>
+        <v>157.9441989440006</v>
       </c>
     </row>
     <row r="26">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,16 +2719,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
         <v>49.37728379124554</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2792,22 +2792,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958323</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996207</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912455</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1805.606526469813</v>
+        <v>1224.371662613092</v>
       </c>
       <c r="C11" t="n">
-        <v>1450.447360831928</v>
+        <v>1224.371662613092</v>
       </c>
       <c r="D11" t="n">
-        <v>1119.459820303689</v>
+        <v>1119.459820303687</v>
       </c>
       <c r="E11" t="n">
-        <v>747.4749190079708</v>
+        <v>747.4749190079696</v>
       </c>
       <c r="F11" t="n">
-        <v>350.2923655208899</v>
+        <v>350.2923655208889</v>
       </c>
       <c r="G11" t="n">
-        <v>350.2923655208899</v>
+        <v>350.2923655208889</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5066,25 +5066,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3229.118504438793</v>
       </c>
       <c r="T11" t="n">
-        <v>3133.431425295919</v>
+        <v>3229.118504438793</v>
       </c>
       <c r="U11" t="n">
-        <v>2893.704299872282</v>
+        <v>2989.391379015156</v>
       </c>
       <c r="V11" t="n">
-        <v>2893.704299872282</v>
+        <v>2672.131842974112</v>
       </c>
       <c r="W11" t="n">
-        <v>2554.738995904694</v>
+        <v>2333.166539006525</v>
       </c>
       <c r="X11" t="n">
-        <v>2554.738995904694</v>
+        <v>1973.504132047972</v>
       </c>
       <c r="Y11" t="n">
-        <v>2178.403015231409</v>
+        <v>1597.168151374687</v>
       </c>
     </row>
     <row r="12">
@@ -5094,73 +5094,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
         <v>1109.759191501176</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>400.7992139969143</v>
+        <v>708.0041398059814</v>
       </c>
       <c r="C13" t="n">
-        <v>245.6663823715337</v>
+        <v>552.8713081806015</v>
       </c>
       <c r="D13" t="n">
-        <v>150.0344423113118</v>
+        <v>416.5580200707927</v>
       </c>
       <c r="E13" t="n">
-        <v>150.0344423113118</v>
+        <v>282.4482777909265</v>
       </c>
       <c r="F13" t="n">
-        <v>150.0344423113118</v>
+        <v>282.4482777909265</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0344423113118</v>
+        <v>282.4482777909265</v>
       </c>
       <c r="H13" t="n">
-        <v>150.0344423113118</v>
+        <v>150.0344423113112</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>125.163413490725</v>
+        <v>125.1634134907256</v>
       </c>
       <c r="K13" t="n">
-        <v>342.6792610512074</v>
+        <v>342.6792610512085</v>
       </c>
       <c r="L13" t="n">
-        <v>672.7677241113095</v>
+        <v>672.7677241113112</v>
       </c>
       <c r="M13" t="n">
-        <v>1030.453434322465</v>
+        <v>1030.453434322467</v>
       </c>
       <c r="N13" t="n">
-        <v>1385.390475639935</v>
+        <v>1385.390475639938</v>
       </c>
       <c r="O13" t="n">
-        <v>1698.248739171955</v>
+        <v>1698.248739171958</v>
       </c>
       <c r="P13" t="n">
-        <v>1944.38490421722</v>
+        <v>1944.384904217224</v>
       </c>
       <c r="Q13" t="n">
-        <v>2035.523864981341</v>
+        <v>2035.523864981345</v>
       </c>
       <c r="R13" t="n">
-        <v>1959.496759041395</v>
+        <v>1959.4967590414</v>
       </c>
       <c r="S13" t="n">
-        <v>1781.614226170748</v>
+        <v>1781.614226170753</v>
       </c>
       <c r="T13" t="n">
-        <v>1781.614226170748</v>
+        <v>1781.614226170753</v>
       </c>
       <c r="U13" t="n">
-        <v>1506.314710598917</v>
+        <v>1781.614226170753</v>
       </c>
       <c r="V13" t="n">
-        <v>1265.433573695557</v>
+        <v>1540.733089267393</v>
       </c>
       <c r="W13" t="n">
-        <v>989.8197549611225</v>
+        <v>1265.119270532959</v>
       </c>
       <c r="X13" t="n">
-        <v>775.6335553656314</v>
+        <v>1050.933070937469</v>
       </c>
       <c r="Y13" t="n">
-        <v>568.6443275246277</v>
+        <v>843.9438430964658</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1468.008712973309</v>
+        <v>1893.384813918392</v>
       </c>
       <c r="C14" t="n">
-        <v>1468.008712973309</v>
+        <v>1893.384813918392</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.546365669085</v>
+        <v>1548.922466614169</v>
       </c>
       <c r="E14" t="n">
-        <v>751.5614643733672</v>
+        <v>1176.937565318451</v>
       </c>
       <c r="F14" t="n">
-        <v>751.5614643733672</v>
+        <v>779.7550118313704</v>
       </c>
       <c r="G14" t="n">
-        <v>350.29236552089</v>
+        <v>378.4859129788938</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>94.70566389018781</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912083</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3292.13346235067</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3099.959066037418</v>
+        <v>3133.43142529592</v>
       </c>
       <c r="U14" t="n">
-        <v>2860.23194061378</v>
+        <v>3133.43142529592</v>
       </c>
       <c r="V14" t="n">
-        <v>2542.972404572736</v>
+        <v>2816.171889254877</v>
       </c>
       <c r="W14" t="n">
-        <v>2204.007100605148</v>
+        <v>2816.171889254877</v>
       </c>
       <c r="X14" t="n">
-        <v>1844.344693646595</v>
+        <v>2642.517283353272</v>
       </c>
       <c r="Y14" t="n">
-        <v>1468.008712973309</v>
+        <v>2266.181302679987</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,10 +5373,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.054059965379</v>
+        <v>843.2841099721263</v>
       </c>
       <c r="C16" t="n">
-        <v>623.9212283399984</v>
+        <v>688.1512783467463</v>
       </c>
       <c r="D16" t="n">
-        <v>487.607940230189</v>
+        <v>688.1512783467463</v>
       </c>
       <c r="E16" t="n">
-        <v>353.4981979503222</v>
+        <v>554.04153606688</v>
       </c>
       <c r="F16" t="n">
-        <v>220.4116017549382</v>
+        <v>420.9549398714965</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>282.4482777909265</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>150.0344423113112</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>125.163413490725</v>
+        <v>125.1634134907257</v>
       </c>
       <c r="K16" t="n">
-        <v>342.6792610512073</v>
+        <v>342.6792610512086</v>
       </c>
       <c r="L16" t="n">
-        <v>672.7677241113095</v>
+        <v>672.7677241113114</v>
       </c>
       <c r="M16" t="n">
-        <v>1030.453434322464</v>
+        <v>1030.453434322467</v>
       </c>
       <c r="N16" t="n">
-        <v>1385.390475639935</v>
+        <v>1385.390475639938</v>
       </c>
       <c r="O16" t="n">
-        <v>1698.248739171954</v>
+        <v>1698.248739171958</v>
       </c>
       <c r="P16" t="n">
-        <v>1944.38490421722</v>
+        <v>1944.384904217224</v>
       </c>
       <c r="Q16" t="n">
-        <v>2035.52386498134</v>
+        <v>2035.523864981345</v>
       </c>
       <c r="R16" t="n">
-        <v>2035.52386498134</v>
+        <v>1959.4967590414</v>
       </c>
       <c r="S16" t="n">
-        <v>1945.682872543721</v>
+        <v>1781.614226170753</v>
       </c>
       <c r="T16" t="n">
-        <v>1945.682872543721</v>
+        <v>1573.650962042806</v>
       </c>
       <c r="U16" t="n">
-        <v>1670.383356971891</v>
+        <v>1298.351446470976</v>
       </c>
       <c r="V16" t="n">
-        <v>1429.502220068531</v>
+        <v>1057.470309567617</v>
       </c>
       <c r="W16" t="n">
-        <v>1153.888401334096</v>
+        <v>1057.470309567617</v>
       </c>
       <c r="X16" t="n">
-        <v>1153.888401334096</v>
+        <v>843.2841099721263</v>
       </c>
       <c r="Y16" t="n">
-        <v>946.8991734930923</v>
+        <v>843.2841099721263</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1945.5435520154</v>
+        <v>1945.543552015395</v>
       </c>
       <c r="C17" t="n">
-        <v>1637.834019325588</v>
+        <v>1637.834019325584</v>
       </c>
       <c r="D17" t="n">
-        <v>1340.821304969437</v>
+        <v>1340.821304969434</v>
       </c>
       <c r="E17" t="n">
-        <v>1016.286036621792</v>
+        <v>1016.286036621789</v>
       </c>
       <c r="F17" t="n">
-        <v>666.5531160827844</v>
+        <v>666.553116082782</v>
       </c>
       <c r="G17" t="n">
-        <v>312.7336501783807</v>
+        <v>312.7336501783797</v>
       </c>
       <c r="H17" t="n">
-        <v>76.40303403774752</v>
+        <v>76.40303403774709</v>
       </c>
       <c r="I17" t="n">
-        <v>76.40303403774752</v>
+        <v>76.40303403774709</v>
       </c>
       <c r="J17" t="n">
-        <v>265.2821649967729</v>
+        <v>265.2821649967725</v>
       </c>
       <c r="K17" t="n">
-        <v>599.1015386866193</v>
+        <v>599.1015386866191</v>
       </c>
       <c r="L17" t="n">
-        <v>1050.135751935028</v>
+        <v>1136.08198544931</v>
       </c>
       <c r="M17" t="n">
-        <v>1583.667656606952</v>
+        <v>1669.613890121234</v>
       </c>
       <c r="N17" t="n">
-        <v>2130.446473665735</v>
+        <v>2615.101436338354</v>
       </c>
       <c r="O17" t="n">
-        <v>2633.418944545072</v>
+        <v>3118.073907217691</v>
       </c>
       <c r="P17" t="n">
-        <v>3302.656432821585</v>
+        <v>3512.848273574869</v>
       </c>
       <c r="Q17" t="n">
-        <v>3761.134635330573</v>
+        <v>3761.134635330552</v>
       </c>
       <c r="R17" t="n">
-        <v>3820.151701887376</v>
+        <v>3820.151701887354</v>
       </c>
       <c r="S17" t="n">
-        <v>3771.11401766507</v>
+        <v>3810.317359517835</v>
       </c>
       <c r="T17" t="n">
-        <v>3626.389254299892</v>
+        <v>3665.592596152656</v>
       </c>
       <c r="U17" t="n">
-        <v>3473.3151036771</v>
+        <v>3473.315103677093</v>
       </c>
       <c r="V17" t="n">
-        <v>3203.505200584128</v>
+        <v>3203.505200584123</v>
       </c>
       <c r="W17" t="n">
-        <v>2911.989529564614</v>
+        <v>2911.989529564608</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.776755554134</v>
+        <v>2599.776755554129</v>
       </c>
       <c r="Y17" t="n">
-        <v>2270.890407828922</v>
+        <v>2270.890407828917</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>951.4347720866728</v>
+        <v>951.4347720866723</v>
       </c>
       <c r="C18" t="n">
-        <v>776.9817428055458</v>
+        <v>776.9817428055453</v>
       </c>
       <c r="D18" t="n">
-        <v>628.0473331442945</v>
+        <v>628.047333144294</v>
       </c>
       <c r="E18" t="n">
-        <v>468.8098781388391</v>
+        <v>468.8098781388386</v>
       </c>
       <c r="F18" t="n">
-        <v>322.275320165724</v>
+        <v>322.2753201657235</v>
       </c>
       <c r="G18" t="n">
-        <v>185.9122199983421</v>
+        <v>185.9122199983416</v>
       </c>
       <c r="H18" t="n">
-        <v>95.41032563620959</v>
+        <v>95.41032563620914</v>
       </c>
       <c r="I18" t="n">
-        <v>76.40303403774752</v>
+        <v>76.40303403774709</v>
       </c>
       <c r="J18" t="n">
-        <v>170.0803035283651</v>
+        <v>170.0803035283644</v>
       </c>
       <c r="K18" t="n">
-        <v>408.3445025087122</v>
+        <v>408.3445025087116</v>
       </c>
       <c r="L18" t="n">
-        <v>775.0426628213775</v>
+        <v>775.042662821377</v>
       </c>
       <c r="M18" t="n">
         <v>1222.318988043693</v>
@@ -5625,7 +5625,7 @@
         <v>2252.719219902756</v>
       </c>
       <c r="U18" t="n">
-        <v>2024.651373037172</v>
+        <v>2024.651373037171</v>
       </c>
       <c r="V18" t="n">
         <v>1789.499264805429</v>
@@ -5634,10 +5634,10 @@
         <v>1535.261908077227</v>
       </c>
       <c r="X18" t="n">
-        <v>1327.410407871695</v>
+        <v>1327.410407871694</v>
       </c>
       <c r="Y18" t="n">
-        <v>1119.650109106741</v>
+        <v>1119.65010910674</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.7337082931741</v>
+        <v>672.7337082931699</v>
       </c>
       <c r="C19" t="n">
-        <v>565.0505096158669</v>
+        <v>565.0505096158631</v>
       </c>
       <c r="D19" t="n">
-        <v>476.1868544541308</v>
+        <v>476.1868544541276</v>
       </c>
       <c r="E19" t="n">
-        <v>389.5267451223373</v>
+        <v>389.5267451223347</v>
       </c>
       <c r="F19" t="n">
-        <v>303.8897818750265</v>
+        <v>303.8897818750245</v>
       </c>
       <c r="G19" t="n">
-        <v>197.4399295003451</v>
+        <v>197.4399295003436</v>
       </c>
       <c r="H19" t="n">
-        <v>112.4757269688025</v>
+        <v>112.4757269688016</v>
       </c>
       <c r="I19" t="n">
-        <v>76.40303403774752</v>
+        <v>76.40303403774709</v>
       </c>
       <c r="J19" t="n">
-        <v>121.5256664846831</v>
+        <v>121.5256664846827</v>
       </c>
       <c r="K19" t="n">
-        <v>385.5468992975721</v>
+        <v>325.512849433559</v>
       </c>
       <c r="L19" t="n">
-        <v>702.1066977460682</v>
+        <v>642.0726478820552</v>
       </c>
       <c r="M19" t="n">
-        <v>1106.29779320963</v>
+        <v>986.2296934816043</v>
       </c>
       <c r="N19" t="n">
-        <v>1447.706169915494</v>
+        <v>1387.672120051482</v>
       </c>
       <c r="O19" t="n">
-        <v>1778.157130286714</v>
+        <v>1747.035768835909</v>
       </c>
       <c r="P19" t="n">
-        <v>2010.764630720373</v>
+        <v>2010.764630720364</v>
       </c>
       <c r="Q19" t="n">
-        <v>2088.374926872888</v>
+        <v>2088.374926872879</v>
       </c>
       <c r="R19" t="n">
-        <v>2059.797453881015</v>
+        <v>2059.797453881007</v>
       </c>
       <c r="S19" t="n">
-        <v>1929.364553958442</v>
+        <v>1929.364553958434</v>
       </c>
       <c r="T19" t="n">
-        <v>1768.850922778567</v>
+        <v>1768.85092277856</v>
       </c>
       <c r="U19" t="n">
-        <v>1541.001040154811</v>
+        <v>1541.001040154804</v>
       </c>
       <c r="V19" t="n">
-        <v>1347.569536199523</v>
+        <v>1347.569536199517</v>
       </c>
       <c r="W19" t="n">
-        <v>1119.405350413162</v>
+        <v>1119.405350413157</v>
       </c>
       <c r="X19" t="n">
-        <v>952.6687837657446</v>
+        <v>952.6687837657394</v>
       </c>
       <c r="Y19" t="n">
-        <v>793.1291888728142</v>
+        <v>793.1291888728094</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1945.5435520154</v>
+        <v>1945.543552015396</v>
       </c>
       <c r="C20" t="n">
-        <v>1637.834019325588</v>
+        <v>1637.834019325585</v>
       </c>
       <c r="D20" t="n">
-        <v>1340.821304969437</v>
+        <v>1340.821304969435</v>
       </c>
       <c r="E20" t="n">
-        <v>1016.286036621792</v>
+        <v>1016.286036621791</v>
       </c>
       <c r="F20" t="n">
-        <v>666.5531160827846</v>
+        <v>666.5531160827832</v>
       </c>
       <c r="G20" t="n">
-        <v>312.7336501783807</v>
+        <v>312.7336501783797</v>
       </c>
       <c r="H20" t="n">
-        <v>76.40303403774752</v>
+        <v>76.40303403774709</v>
       </c>
       <c r="I20" t="n">
-        <v>76.40303403774752</v>
+        <v>76.40303403774709</v>
       </c>
       <c r="J20" t="n">
-        <v>432.6878140171259</v>
+        <v>432.6878140171256</v>
       </c>
       <c r="K20" t="n">
-        <v>808.5054049317025</v>
+        <v>766.507187706972</v>
       </c>
       <c r="L20" t="n">
-        <v>1259.539618180111</v>
+        <v>1217.541400955381</v>
       </c>
       <c r="M20" t="n">
-        <v>1793.071522852036</v>
+        <v>1751.073305627305</v>
       </c>
       <c r="N20" t="n">
-        <v>2339.850339910818</v>
+        <v>2297.852122686088</v>
       </c>
       <c r="O20" t="n">
-        <v>2842.822810790155</v>
+        <v>2800.824593565424</v>
       </c>
       <c r="P20" t="n">
-        <v>3237.597177147332</v>
+        <v>3237.597177147311</v>
       </c>
       <c r="Q20" t="n">
-        <v>3696.07537965632</v>
+        <v>3696.075379656299</v>
       </c>
       <c r="R20" t="n">
-        <v>3820.151701887376</v>
+        <v>3820.151701887355</v>
       </c>
       <c r="S20" t="n">
-        <v>3771.11401766507</v>
+        <v>3771.11401766505</v>
       </c>
       <c r="T20" t="n">
-        <v>3626.389254299892</v>
+        <v>3626.389254299872</v>
       </c>
       <c r="U20" t="n">
-        <v>3434.111761824328</v>
+        <v>3434.111761824309</v>
       </c>
       <c r="V20" t="n">
-        <v>3164.301858731357</v>
+        <v>3164.301858731339</v>
       </c>
       <c r="W20" t="n">
-        <v>2872.786187711843</v>
+        <v>2872.786187711825</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.776755554134</v>
+        <v>2560.573413701345</v>
       </c>
       <c r="Y20" t="n">
-        <v>2270.890407828922</v>
+        <v>2231.687065976133</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>951.4347720866728</v>
+        <v>951.4347720866722</v>
       </c>
       <c r="C21" t="n">
-        <v>776.9817428055458</v>
+        <v>776.9817428055452</v>
       </c>
       <c r="D21" t="n">
-        <v>628.0473331442945</v>
+        <v>628.047333144294</v>
       </c>
       <c r="E21" t="n">
-        <v>468.8098781388391</v>
+        <v>468.8098781388385</v>
       </c>
       <c r="F21" t="n">
-        <v>322.275320165724</v>
+        <v>322.2753201657235</v>
       </c>
       <c r="G21" t="n">
-        <v>185.9122199983421</v>
+        <v>185.9122199983422</v>
       </c>
       <c r="H21" t="n">
-        <v>95.41032563620959</v>
+        <v>95.41032563620914</v>
       </c>
       <c r="I21" t="n">
-        <v>76.40303403774752</v>
+        <v>76.40303403774709</v>
       </c>
       <c r="J21" t="n">
-        <v>170.0803035283651</v>
+        <v>170.0803035283644</v>
       </c>
       <c r="K21" t="n">
-        <v>408.3445025087122</v>
+        <v>408.3445025087116</v>
       </c>
       <c r="L21" t="n">
-        <v>775.0426628213775</v>
+        <v>775.0426628213772</v>
       </c>
       <c r="M21" t="n">
         <v>1222.318988043693</v>
@@ -5862,7 +5862,7 @@
         <v>2252.719219902756</v>
       </c>
       <c r="U21" t="n">
-        <v>2024.651373037172</v>
+        <v>2024.651373037171</v>
       </c>
       <c r="V21" t="n">
         <v>1789.499264805429</v>
@@ -5871,10 +5871,10 @@
         <v>1535.261908077227</v>
       </c>
       <c r="X21" t="n">
-        <v>1327.410407871695</v>
+        <v>1327.410407871694</v>
       </c>
       <c r="Y21" t="n">
-        <v>1119.650109106741</v>
+        <v>1119.65010910674</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>672.7337082931741</v>
+        <v>672.7337082931699</v>
       </c>
       <c r="C22" t="n">
-        <v>565.0505096158669</v>
+        <v>565.0505096158631</v>
       </c>
       <c r="D22" t="n">
-        <v>476.1868544541308</v>
+        <v>476.1868544541276</v>
       </c>
       <c r="E22" t="n">
-        <v>389.5267451223373</v>
+        <v>389.5267451223347</v>
       </c>
       <c r="F22" t="n">
-        <v>303.8897818750265</v>
+        <v>303.8897818750245</v>
       </c>
       <c r="G22" t="n">
-        <v>197.4399295003451</v>
+        <v>197.4399295003436</v>
       </c>
       <c r="H22" t="n">
-        <v>112.4757269688025</v>
+        <v>112.4757269688016</v>
       </c>
       <c r="I22" t="n">
-        <v>76.40303403774752</v>
+        <v>76.40303403774709</v>
       </c>
       <c r="J22" t="n">
-        <v>181.5597163486958</v>
+        <v>121.5256664846827</v>
       </c>
       <c r="K22" t="n">
-        <v>445.5809491615848</v>
+        <v>325.512849433559</v>
       </c>
       <c r="L22" t="n">
-        <v>762.1407476100809</v>
+        <v>642.0726478820552</v>
       </c>
       <c r="M22" t="n">
-        <v>1106.29779320963</v>
+        <v>986.2296934816043</v>
       </c>
       <c r="N22" t="n">
-        <v>1447.706169915494</v>
+        <v>1327.638070187469</v>
       </c>
       <c r="O22" t="n">
-        <v>1778.157130286714</v>
+        <v>1658.089030558678</v>
       </c>
       <c r="P22" t="n">
-        <v>2010.764630720373</v>
+        <v>1950.730580856351</v>
       </c>
       <c r="Q22" t="n">
-        <v>2088.374926872888</v>
+        <v>2088.374926872879</v>
       </c>
       <c r="R22" t="n">
-        <v>2059.797453881015</v>
+        <v>2059.797453881007</v>
       </c>
       <c r="S22" t="n">
-        <v>1929.364553958442</v>
+        <v>1929.364553958434</v>
       </c>
       <c r="T22" t="n">
-        <v>1768.850922778567</v>
+        <v>1768.85092277856</v>
       </c>
       <c r="U22" t="n">
-        <v>1541.001040154811</v>
+        <v>1541.001040154804</v>
       </c>
       <c r="V22" t="n">
-        <v>1347.569536199523</v>
+        <v>1347.569536199517</v>
       </c>
       <c r="W22" t="n">
-        <v>1119.405350413162</v>
+        <v>1119.405350413157</v>
       </c>
       <c r="X22" t="n">
-        <v>952.6687837657446</v>
+        <v>952.6687837657394</v>
       </c>
       <c r="Y22" t="n">
-        <v>793.1291888728142</v>
+        <v>793.1291888728094</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1946.343620216478</v>
+        <v>1946.343620216473</v>
       </c>
       <c r="C23" t="n">
-        <v>1638.634087526666</v>
+        <v>1638.634087526662</v>
       </c>
       <c r="D23" t="n">
-        <v>1341.621373170515</v>
+        <v>1341.621373170512</v>
       </c>
       <c r="E23" t="n">
-        <v>1017.08610482287</v>
+        <v>1017.086104822868</v>
       </c>
       <c r="F23" t="n">
-        <v>667.3531842838624</v>
+        <v>667.3531842838602</v>
       </c>
       <c r="G23" t="n">
-        <v>313.5337183794576</v>
+        <v>313.533718379457</v>
       </c>
       <c r="H23" t="n">
-        <v>77.2031022388245</v>
+        <v>77.20310223882434</v>
       </c>
       <c r="I23" t="n">
-        <v>77.2031022388245</v>
+        <v>77.20310223882434</v>
       </c>
       <c r="J23" t="n">
-        <v>433.4878822182029</v>
+        <v>433.4878822182028</v>
       </c>
       <c r="K23" t="n">
         <v>767.3072559080492</v>
@@ -5996,7 +5996,7 @@
         <v>1218.341469156458</v>
       </c>
       <c r="M23" t="n">
-        <v>1751.873373828382</v>
+        <v>1751.873373828383</v>
       </c>
       <c r="N23" t="n">
         <v>2298.652190887165</v>
@@ -6005,34 +6005,34 @@
         <v>2801.624661766502</v>
       </c>
       <c r="P23" t="n">
-        <v>3277.600587201182</v>
+        <v>3277.600587201174</v>
       </c>
       <c r="Q23" t="n">
-        <v>3736.07878971017</v>
+        <v>3736.078789710162</v>
       </c>
       <c r="R23" t="n">
-        <v>3860.155111941225</v>
+        <v>3860.155111941217</v>
       </c>
       <c r="S23" t="n">
-        <v>3811.11742771892</v>
+        <v>3811.117427718912</v>
       </c>
       <c r="T23" t="n">
-        <v>3666.392664353742</v>
+        <v>3666.392664353735</v>
       </c>
       <c r="U23" t="n">
-        <v>3474.115171878178</v>
+        <v>3474.115171878171</v>
       </c>
       <c r="V23" t="n">
-        <v>3204.305268785206</v>
+        <v>3204.3052687852</v>
       </c>
       <c r="W23" t="n">
-        <v>2912.789597765692</v>
+        <v>2912.789597765686</v>
       </c>
       <c r="X23" t="n">
-        <v>2600.576823755212</v>
+        <v>2600.576823755207</v>
       </c>
       <c r="Y23" t="n">
-        <v>2271.690476029999</v>
+        <v>2271.690476029995</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.2348402877498</v>
+        <v>952.2348402877495</v>
       </c>
       <c r="C24" t="n">
-        <v>777.7818110066228</v>
+        <v>777.7818110066225</v>
       </c>
       <c r="D24" t="n">
-        <v>628.8474013453715</v>
+        <v>628.8474013453713</v>
       </c>
       <c r="E24" t="n">
-        <v>469.609946339916</v>
+        <v>469.6099463399158</v>
       </c>
       <c r="F24" t="n">
-        <v>323.075388366801</v>
+        <v>323.0753883668008</v>
       </c>
       <c r="G24" t="n">
-        <v>186.712288199419</v>
+        <v>186.7122881994189</v>
       </c>
       <c r="H24" t="n">
-        <v>96.21039383728657</v>
+        <v>96.21039383728638</v>
       </c>
       <c r="I24" t="n">
-        <v>77.2031022388245</v>
+        <v>77.20310223882434</v>
       </c>
       <c r="J24" t="n">
-        <v>170.8803717294421</v>
+        <v>170.8803717294417</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1445707097892</v>
+        <v>409.1445707097888</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8427310224545</v>
+        <v>775.8427310224542</v>
       </c>
       <c r="M24" t="n">
         <v>1223.11905624477</v>
@@ -6099,7 +6099,7 @@
         <v>2253.519288103833</v>
       </c>
       <c r="U24" t="n">
-        <v>2025.451441238249</v>
+        <v>2025.451441238248</v>
       </c>
       <c r="V24" t="n">
         <v>1790.299333006506</v>
@@ -6108,7 +6108,7 @@
         <v>1536.061976278304</v>
       </c>
       <c r="X24" t="n">
-        <v>1328.210476072772</v>
+        <v>1328.210476072771</v>
       </c>
       <c r="Y24" t="n">
         <v>1120.450177307818</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.533776494251</v>
+        <v>673.5337764942471</v>
       </c>
       <c r="C25" t="n">
-        <v>565.8505778169438</v>
+        <v>565.8505778169404</v>
       </c>
       <c r="D25" t="n">
-        <v>476.9869226552076</v>
+        <v>476.9869226552048</v>
       </c>
       <c r="E25" t="n">
-        <v>390.3268133234142</v>
+        <v>390.3268133234119</v>
       </c>
       <c r="F25" t="n">
-        <v>304.6898500761035</v>
+        <v>304.6898500761017</v>
       </c>
       <c r="G25" t="n">
-        <v>198.2399977014221</v>
+        <v>198.2399977014209</v>
       </c>
       <c r="H25" t="n">
-        <v>113.2757951698795</v>
+        <v>113.2757951698788</v>
       </c>
       <c r="I25" t="n">
-        <v>77.2031022388245</v>
+        <v>77.20310223882434</v>
       </c>
       <c r="J25" t="n">
-        <v>122.32573468576</v>
+        <v>122.3257346857599</v>
       </c>
       <c r="K25" t="n">
-        <v>326.3129176346364</v>
+        <v>326.3129176346363</v>
       </c>
       <c r="L25" t="n">
-        <v>642.8727160831324</v>
+        <v>702.9067659471457</v>
       </c>
       <c r="M25" t="n">
-        <v>987.0297616826814</v>
+        <v>1107.097861410708</v>
       </c>
       <c r="N25" t="n">
-        <v>1388.472188252559</v>
+        <v>1479.627599567368</v>
       </c>
       <c r="O25" t="n">
-        <v>1687.801787172972</v>
+        <v>1778.957198487782</v>
       </c>
       <c r="P25" t="n">
-        <v>1951.530649057438</v>
+        <v>2011.564698921441</v>
       </c>
       <c r="Q25" t="n">
-        <v>2089.174995073965</v>
+        <v>2089.174995073956</v>
       </c>
       <c r="R25" t="n">
-        <v>2060.597522082092</v>
+        <v>2060.597522082084</v>
       </c>
       <c r="S25" t="n">
-        <v>1930.164622159519</v>
+        <v>1930.164622159511</v>
       </c>
       <c r="T25" t="n">
-        <v>1769.650990979644</v>
+        <v>1769.650990979637</v>
       </c>
       <c r="U25" t="n">
-        <v>1541.801108355888</v>
+        <v>1541.801108355881</v>
       </c>
       <c r="V25" t="n">
-        <v>1348.3696044006</v>
+        <v>1348.369604400594</v>
       </c>
       <c r="W25" t="n">
-        <v>1120.205418614239</v>
+        <v>1120.205418614234</v>
       </c>
       <c r="X25" t="n">
-        <v>953.4688519668216</v>
+        <v>953.4688519668166</v>
       </c>
       <c r="Y25" t="n">
-        <v>793.9292570738911</v>
+        <v>793.9292570738867</v>
       </c>
     </row>
     <row r="26">
@@ -6206,13 +6206,13 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424366</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834459</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668918</v>
@@ -6385,10 +6385,10 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6461,22 +6461,22 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>3071.136282571878</v>
       </c>
       <c r="P29" t="n">
         <v>3474.791320094414</v>
@@ -6497,13 +6497,13 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6540,25 +6540,25 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643396</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,13 +6640,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570352</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6701,28 +6701,28 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>1045.699547878785</v>
+        <v>810.8729904741849</v>
       </c>
       <c r="L32" t="n">
-        <v>1496.733761127193</v>
+        <v>1261.907203722594</v>
       </c>
       <c r="M32" t="n">
-        <v>2030.265665799118</v>
+        <v>2240.457506552422</v>
       </c>
       <c r="N32" t="n">
-        <v>2577.0444828579</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O32" t="n">
-        <v>3080.016953737237</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309626</v>
@@ -6777,28 +6777,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6859,13 +6859,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6874,7 +6874,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6886,13 +6886,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467785</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
@@ -6935,31 +6935,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455608</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N35" t="n">
-        <v>2135.190356524676</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O35" t="n">
-        <v>2761.436232647469</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094414</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603402</v>
+        <v>3977.401766380301</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309626</v>
@@ -7014,28 +7014,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R36" t="n">
         <v>2579.543989590362</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K37" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M37" t="n">
         <v>1176.995117350173</v>
@@ -7114,7 +7114,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
         <v>2271.591606277852</v>
@@ -7123,7 +7123,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>1045.699547878786</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L38" t="n">
-        <v>1496.733761127194</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799119</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.044482857901</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737238</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W38" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,16 +7248,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7360,7 +7360,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7369,7 +7369,7 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W40" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X40" t="n">
         <v>1081.642828347423</v>
@@ -7397,43 +7397,43 @@
         <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J41" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K41" t="n">
-        <v>937.3106675423223</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L41" t="n">
-        <v>1388.344880790731</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1921.876785462656</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N41" t="n">
-        <v>2468.655602521438</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O41" t="n">
-        <v>2971.628073400775</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3684.983160847721</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
         <v>3994.504809309627</v>
@@ -7445,16 +7445,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X41" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7464,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D42" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F42" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572841</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676539</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803193</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7564,19 +7564,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960311</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7597,7 +7597,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7646,37 +7646,37 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>1045.699547878785</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1496.733761127193</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>2030.265665799118</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N44" t="n">
-        <v>2577.0444828579</v>
+        <v>2135.190356524677</v>
       </c>
       <c r="O44" t="n">
-        <v>3080.016953737237</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3728.510094301078</v>
       </c>
       <c r="Q44" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R44" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T44" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U44" t="n">
         <v>3629.895850863831</v>
@@ -7725,13 +7725,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7798,22 +7798,22 @@
         <v>229.7905149643393</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9167,22 +9167,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>86.81437728715338</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>402.7360900589271</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>277.2354766861975</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>42.42244164114163</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>42.42244164111997</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>82.02177684596217</v>
+        <v>82.02177684595318</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>274.835176366543</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.220684154416</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10121,13 +10121,13 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544151</v>
+        <v>8.970374914503452</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>277.2206841544149</v>
+        <v>40.02214132148566</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>124.5185911550063</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>21.13839585591323</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>277.2206841544158</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>167.7369666428366</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>274.8351763665426</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>277.2206841544149</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11309,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>21.74982042514679</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>351.6075739815059</v>
       </c>
       <c r="D11" t="n">
-        <v>13.34005870822524</v>
+        <v>237.1549999448702</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.2564078639524</v>
+        <v>397.2564078639518</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>27.9116119834249</v>
+        <v>27.91161198342436</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.52244399867477</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>190.2526523501186</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>314.0869406806338</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>356.065782888968</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>31.58635613485617</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.27453456909155</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>132.7686448570681</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7557302334302</v>
+        <v>131.7557302334296</v>
       </c>
       <c r="G13" t="n">
-        <v>152.3604904695272</v>
+        <v>152.3604904695266</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0896971248197</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>205.8836314866681</v>
+        <v>205.8836314866676</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>272.5465204161113</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>369.0685238739795</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>351.6075739815065</v>
+        <v>351.6075739815059</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>393.2107279522104</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>27.91161198342496</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.38480833275943</v>
+        <v>95.52244399867422</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>237.3298541694004</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>335.5756509279114</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>184.1477230463788</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>166.1666623924357</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>134.9501552287107</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15.23889500976225</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0896971248198</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>82.6871026203371</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>75.26683488054633</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>87.16112502869801</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>205.8836314866682</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.8576805470894</v>
       </c>
       <c r="X16" t="n">
-        <v>212.0443375995361</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>204.9193355625932</v>
       </c>
     </row>
     <row r="17">
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>38.81130843425715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>38.81130843424376</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>38.8113084342566</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>38.81130843424387</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1014773.892636016</v>
+        <v>1014773.892636018</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1014773.892636016</v>
+        <v>1014773.892636018</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1187760.246871343</v>
+        <v>1187760.246871341</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1187760.246871343</v>
+        <v>1187760.246871341</v>
       </c>
     </row>
     <row r="9">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266264.8100830376</v>
+        <v>266264.8100830375</v>
       </c>
       <c r="C2" t="n">
         <v>266264.8100830375</v>
@@ -26320,40 +26320,40 @@
         <v>266264.8100830375</v>
       </c>
       <c r="E2" t="n">
-        <v>229492.1193444905</v>
+        <v>229492.1193444909</v>
       </c>
       <c r="F2" t="n">
-        <v>229492.1193444905</v>
+        <v>229492.1193444909</v>
       </c>
       <c r="G2" t="n">
-        <v>265834.5266566982</v>
+        <v>265834.5266566975</v>
       </c>
       <c r="H2" t="n">
-        <v>265834.5266566983</v>
+        <v>265834.5266566975</v>
       </c>
       <c r="I2" t="n">
+        <v>266838.5752058917</v>
+      </c>
+      <c r="J2" t="n">
         <v>266838.5752058921</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>266838.575205892</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>266838.5752058921</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>266838.5752058919</v>
-      </c>
-      <c r="M2" t="n">
-        <v>266838.575205892</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058921</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="P2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.575205892</v>
       </c>
     </row>
     <row r="3">
@@ -26375,25 +26375,25 @@
         <v>1134700.308569464</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>71467.01119388707</v>
+        <v>71467.01119388547</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2659.436701232436</v>
+        <v>2659.436701233283</v>
       </c>
       <c r="J3" t="n">
-        <v>12898.44302927929</v>
+        <v>12898.44302927983</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>29753.24015870758</v>
+        <v>29753.24015870627</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>420147.7688895313</v>
       </c>
       <c r="E4" t="n">
-        <v>22969.88759302194</v>
+        <v>22969.88759302248</v>
       </c>
       <c r="F4" t="n">
-        <v>22969.88759302189</v>
+        <v>22969.88759302248</v>
       </c>
       <c r="G4" t="n">
-        <v>78706.21105803645</v>
+        <v>78706.21105803616</v>
       </c>
       <c r="H4" t="n">
-        <v>78706.21105803645</v>
+        <v>78706.21105803616</v>
       </c>
       <c r="I4" t="n">
-        <v>79814.1766974662</v>
+        <v>79814.17669746626</v>
       </c>
       <c r="J4" t="n">
-        <v>76652.56781120109</v>
+        <v>76652.56781120102</v>
       </c>
       <c r="K4" t="n">
-        <v>76652.56781120109</v>
+        <v>76652.56781120099</v>
       </c>
       <c r="L4" t="n">
-        <v>76652.56781120104</v>
+        <v>76652.56781120101</v>
       </c>
       <c r="M4" t="n">
-        <v>76652.56781120104</v>
+        <v>76652.56781120099</v>
       </c>
       <c r="N4" t="n">
-        <v>76652.56781120106</v>
+        <v>76652.56781120098</v>
       </c>
       <c r="O4" t="n">
-        <v>76652.56781120102</v>
+        <v>76652.56781120101</v>
       </c>
       <c r="P4" t="n">
-        <v>76652.56781120104</v>
+        <v>76652.56781120101</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>75455.17016263885</v>
+        <v>75455.17016263891</v>
       </c>
       <c r="F5" t="n">
-        <v>75455.17016263885</v>
+        <v>75455.17016263891</v>
       </c>
       <c r="G5" t="n">
-        <v>86921.42030325603</v>
+        <v>86921.42030325576</v>
       </c>
       <c r="H5" t="n">
-        <v>86921.42030325603</v>
+        <v>86921.42030325576</v>
       </c>
       <c r="I5" t="n">
-        <v>87529.47213607455</v>
+        <v>87529.47213607447</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-187510.5588064937</v>
+        <v>-187514.9723843618</v>
       </c>
       <c r="C6" t="n">
-        <v>-187510.5588064937</v>
+        <v>-187514.9723843618</v>
       </c>
       <c r="D6" t="n">
-        <v>-187510.5588064938</v>
+        <v>-187514.9723843618</v>
       </c>
       <c r="E6" t="n">
-        <v>-1003633.246980635</v>
+        <v>-1003920.527410338</v>
       </c>
       <c r="F6" t="n">
-        <v>131067.0615888298</v>
+        <v>130779.7811591262</v>
       </c>
       <c r="G6" t="n">
-        <v>28739.88410151865</v>
+        <v>28732.1606511417</v>
       </c>
       <c r="H6" t="n">
-        <v>100206.8952954058</v>
+        <v>100199.1718450272</v>
       </c>
       <c r="I6" t="n">
-        <v>96835.48967111895</v>
+        <v>96835.48967111774</v>
       </c>
       <c r="J6" t="n">
-        <v>87909.62269060552</v>
+        <v>87909.62269060512</v>
       </c>
       <c r="K6" t="n">
         <v>100808.0657198849</v>
       </c>
       <c r="L6" t="n">
-        <v>63227.95642501074</v>
+        <v>63227.956425011</v>
       </c>
       <c r="M6" t="n">
         <v>-106380.5025721881</v>
@@ -26558,10 +26558,10 @@
         <v>100808.065719885</v>
       </c>
       <c r="O6" t="n">
-        <v>71054.82556117751</v>
+        <v>71054.82556117876</v>
       </c>
       <c r="P6" t="n">
-        <v>100808.065719885</v>
+        <v>100808.0657198848</v>
       </c>
     </row>
   </sheetData>
@@ -26692,31 +26692,31 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="F2" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="G2" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="H2" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="I2" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>955.0379254718439</v>
+        <v>955.0379254718385</v>
       </c>
       <c r="H4" t="n">
-        <v>955.0379254718439</v>
+        <v>955.0379254718387</v>
       </c>
       <c r="I4" t="n">
-        <v>965.0387779853063</v>
+        <v>965.0387779853043</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26823,7 +26823,7 @@
         <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208615</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.6364700695513</v>
+        <v>123.6364700695457</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>10.00085251346241</v>
+        <v>10.00085251346559</v>
       </c>
       <c r="J4" t="n">
-        <v>49.29768322330835</v>
+        <v>49.2976832233104</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695513</v>
+        <v>123.6364700695458</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>123.6364700695513</v>
+        <v>123.6364700695457</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="C11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="D11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="E11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="F11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="G11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="H11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="I11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="T11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="U11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="V11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="W11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="X11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="C13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="D13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="E13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="F13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="G13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="I13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="J13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="K13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="L13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="M13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="N13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="O13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="P13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="R13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="S13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="T13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="U13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="V13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="W13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="X13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.66531778950107</v>
+        <v>13.66531778950162</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="C14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="D14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="E14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="F14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="G14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="H14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="I14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="T14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="U14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="V14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="W14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="X14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="C16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="D16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="E16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="F16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="I16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="J16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="K16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="L16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="M16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="N16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="O16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="P16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="R16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="S16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="T16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="U16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="V16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="W16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="X16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.66531778950102</v>
+        <v>13.66531778950162</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="C17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="D17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="E17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="F17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="G17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="H17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="T17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="U17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="V17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="W17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="X17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="Y17" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="C19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="D19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="E19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="F19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="G19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="H19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="I19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.64045440809365</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>60.64045440809365</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="O19" t="n">
-        <v>31.43571863717818</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>31.43571863716755</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="S19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="T19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="U19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="V19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="W19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="X19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="C20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="D20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="E20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="F20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="G20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="H20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="T20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="U20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="V20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="W20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="X20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="Y20" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
     </row>
     <row r="21">
@@ -28956,34 +28956,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="C22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="D22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="E22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="F22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="G22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="H22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="I22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="J22" t="n">
-        <v>60.64045440809365</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>60.64045440809365</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>31.43571863717818</v>
+        <v>31.43571863716755</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="R22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="S22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="T22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="U22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="V22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="W22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="X22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="C23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="D23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="E23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="F23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="G23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="H23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="T23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="U23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="V23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="W23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="X23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="Y23" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="C25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="D25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="E25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="F25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="G25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="H25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="I25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29223,46 +29223,46 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="N25" t="n">
-        <v>60.64045440809365</v>
+        <v>31.43571863716721</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>31.43571863717796</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.64045440809365</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="S25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="T25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="U25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="V25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="W25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="X25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.64045440809365</v>
+        <v>60.64045440809417</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859262</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859266</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M40" t="n">
         <v>46.97513661859256</v>
@@ -30715,7 +30715,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.24373440256727</v>
+        <v>59.24373440256782</v>
       </c>
       <c r="K13" t="n">
-        <v>219.7129773338206</v>
+        <v>219.7129773338211</v>
       </c>
       <c r="L13" t="n">
-        <v>333.4226899596991</v>
+        <v>333.4226899596997</v>
       </c>
       <c r="M13" t="n">
-        <v>361.2986971829848</v>
+        <v>361.2986971829854</v>
       </c>
       <c r="N13" t="n">
-        <v>358.5222639570411</v>
+        <v>358.5222639570417</v>
       </c>
       <c r="O13" t="n">
-        <v>316.0184480121408</v>
+        <v>316.0184480121413</v>
       </c>
       <c r="P13" t="n">
-        <v>248.6223889346115</v>
+        <v>248.622388934612</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.0595563273947</v>
+        <v>92.05955632739526</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.24373440256721</v>
+        <v>59.24373440256785</v>
       </c>
       <c r="K16" t="n">
-        <v>219.7129773338205</v>
+        <v>219.7129773338212</v>
       </c>
       <c r="L16" t="n">
-        <v>333.4226899596991</v>
+        <v>333.4226899596998</v>
       </c>
       <c r="M16" t="n">
-        <v>361.2986971829848</v>
+        <v>361.2986971829854</v>
       </c>
       <c r="N16" t="n">
-        <v>358.522263957041</v>
+        <v>358.5222639570417</v>
       </c>
       <c r="O16" t="n">
-        <v>316.0184480121408</v>
+        <v>316.0184480121414</v>
       </c>
       <c r="P16" t="n">
-        <v>248.6223889346114</v>
+        <v>248.622388934612</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.05955632739466</v>
+        <v>92.05955632739528</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>542.4044916794855</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>955.0379254718385</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>675.9974629055691</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597736</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>266.6881139524132</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>408.2738338015774</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>405.4974005756343</v>
       </c>
       <c r="O19" t="n">
-        <v>333.7888488598179</v>
+        <v>362.9935846307339</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>266.392789782278</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,25 +36121,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>379.613728196542</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>441.1844278604918</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597736</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.2188710211598</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>266.6881139524132</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>333.7888488598179</v>
+        <v>333.7888488598073</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>295.5975255532046</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>139.0346929459878</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>480.7837630653338</v>
+        <v>480.783763065325</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597739</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>380.3978265782923</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>408.273833801578</v>
       </c>
       <c r="N25" t="n">
-        <v>405.4974005756337</v>
+        <v>376.2926648047073</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>266.3927897822883</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>139.0346929459873</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>827.1370117794545</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737876</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,16 +36759,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737867</v>
+        <v>407.7323611338753</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37008,7 +37008,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,25 +37069,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>614.4119707098153</v>
+        <v>377.2134278768862</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564862</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>632.5715920432253</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>80.75159439813801</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165885</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37543,25 +37543,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>614.4119707098162</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>504.9282531982371</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>827.137011779454</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>614.4119707098153</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>272.5441252288663</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
